--- a/src/main/resources/config/reduce.xlsx
+++ b/src/main/resources/config/reduce.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13800" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="invoice" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="14">
   <si>
     <t>&lt;jx:forEach items="${orderItems}" var="item"&gt;</t>
   </si>
@@ -86,25 +86,7 @@
     <t>${totalSum}</t>
   </si>
   <si>
-    <r>
-      <t>${item.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>}</t>
-    </r>
+    <t>${item.productInfo.group}</t>
   </si>
 </sst>
 </file>
@@ -183,12 +165,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -205,10 +189,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -538,10 +525,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -587,140 +706,7 @@
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -799,133 +785,6 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1044,4 +903,129 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>